--- a/data_base/Data_base.xlsx
+++ b/data_base/Data_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubkhonabdullaev/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubkhonabdullaev/Projects/WebProject1/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F0838-573C-0945-85C9-1EDF55AD7E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1F462D-6082-D34B-88C5-147C751FE9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
 </sst>
 </file>
@@ -222,14 +228,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6514</xdr:colOff>
+      <xdr:colOff>6515</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>97692</xdr:rowOff>
+      <xdr:rowOff>110718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>814103</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>801077</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>110718</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -244,9 +250,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2012463" y="299589"/>
-          <a:ext cx="807589" cy="13026"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2012464" y="312615"/>
+          <a:ext cx="794562" cy="201898"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -278,15 +284,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6513</xdr:colOff>
+      <xdr:colOff>58615</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>143282</xdr:rowOff>
+      <xdr:rowOff>123744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>801077</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91181</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104205</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -301,8 +307,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4142154" y="358205"/>
-          <a:ext cx="794564" cy="149797"/>
+          <a:off x="4630615" y="325641"/>
+          <a:ext cx="742462" cy="384256"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -634,7 +640,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -685,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -705,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
@@ -742,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1</v>
@@ -762,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data_base/Data_base.xlsx
+++ b/data_base/Data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubkhonabdullaev/Projects/WebProject1/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1F462D-6082-D34B-88C5-147C751FE9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F2EE3-53C7-ED4D-9735-34E8A0EA23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Product</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>real</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>start_date</t>
   </si>
 </sst>
 </file>
@@ -637,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CED8707-B9E1-D34E-A2A7-865394EE6D15}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -720,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -740,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -760,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -769,6 +778,32 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data_base/Data_base.xlsx
+++ b/data_base/Data_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubkhonabdullaev/Projects/WebProject1/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F2EE3-53C7-ED4D-9735-34E8A0EA23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696F2875-EBE2-8049-8402-C0DC15B1E0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Product</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>start_date</t>
+  </si>
+  <si>
+    <t>delivery_date</t>
+  </si>
+  <si>
+    <t>delivered</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,11 +205,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -215,6 +236,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -646,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CED8707-B9E1-D34E-A2A7-865394EE6D15}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,11 +822,25 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data_base/Data_base.xlsx
+++ b/data_base/Data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubkhonabdullaev/Projects/WebProject1/data_base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696F2875-EBE2-8049-8402-C0DC15B1E0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA79B062-6E9D-F540-A9BD-97C3418EC494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{BD201720-335B-A143-861E-5430A88ECA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>Product</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>delivered</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -230,14 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -672,7 +675,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,18 +685,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="8"/>
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -836,11 +839,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
